--- a/data/pdf_docs.xlsx
+++ b/data/pdf_docs.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Roosa\Documents\Project4\project4\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\﻿TeaHuovinen\Desktop\portfolio\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B15AFB88-D2AA-4B42-B79D-3B0BDA789F42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35BA69B7-3A22-4CD9-A989-17B8E2AEC758}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{081D83BF-88FA-4135-A6FD-E62B1B969D4B}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>*** Test Cases ***</t>
   </si>
@@ -44,112 +44,17 @@
     <t>${doc_name}</t>
   </si>
   <si>
-    <t>Conversations</t>
-  </si>
-  <si>
-    <t>Checklist For a Good Pulse Poll</t>
-  </si>
-  <si>
-    <t>Distributable document - QWL for employees</t>
-  </si>
-  <si>
-    <t>Distributable document - QWL for managers</t>
-  </si>
-  <si>
-    <t>Pulse Poll Checklist</t>
-  </si>
-  <si>
-    <t>Employee Guide</t>
-  </si>
-  <si>
-    <t>Manager Guide</t>
-  </si>
-  <si>
-    <t>Adding organizational hierarchy</t>
-  </si>
-  <si>
-    <t>Hierarchy</t>
-  </si>
-  <si>
-    <t>QWL Explained</t>
-  </si>
-  <si>
     <t>${pages}</t>
   </si>
   <si>
-    <t>OK so let’s assume that you have the following organizational
-structure (naturally you can have as many levels as you like):</t>
-  </si>
-  <si>
-    <t>Conversations by</t>
-  </si>
-  <si>
-    <t>How to answer Quality of Work Life (QWL) polls</t>
-  </si>
-  <si>
     <t>${text}</t>
-  </si>
-  <si>
-    <t>Checklist for a good pulse poll</t>
-  </si>
-  <si>
-    <t>Pulse Poll Guide</t>
-  </si>
-  <si>
-    <t>Getting Started With Pulse Polls</t>
-  </si>
-  <si>
-    <t>QWL Poll Guide</t>
-  </si>
-  <si>
-    <t>Getting Started With QWL Polls</t>
-  </si>
-  <si>
-    <t>Translation Checklist</t>
-  </si>
-  <si>
-    <t>Poll Translation Checklist</t>
-  </si>
-  <si>
-    <t>Theoretical Background</t>
-  </si>
-  <si>
-    <t>QWL Method Theoretical Background</t>
-  </si>
-  <si>
-    <t>The QWL method and its theoretical background</t>
-  </si>
-  <si>
-    <t>QWL Whitepaper</t>
-  </si>
-  <si>
-    <t>Quality of Work Life (QWL)</t>
-  </si>
-  <si>
-    <t>Walkthrough</t>
-  </si>
-  <si>
-    <t>Smart Poll Walkthrough</t>
-  </si>
-  <si>
-    <t>Smart Poll Walkthrough
-Step-by-step guide on how to create a poll that adapts to a users' answers</t>
-  </si>
-  <si>
-    <t>Technical Integration Guide</t>
-  </si>
-  <si>
-    <t>Categories</t>
-  </si>
-  <si>
-    <t>Using Categories in Reports</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -165,33 +70,8 @@
       <family val="2"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color rgb="FF333333"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="8"/>
       <color theme="1"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color rgb="FF000000"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="8"/>
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
@@ -225,34 +105,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -568,7 +434,7 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D2"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -587,21 +453,21 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="23.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>13</v>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3">
+        <v>1</v>
       </c>
       <c r="D2" s="2">
         <v>9</v>
@@ -609,14 +475,14 @@
       <c r="E2" s="2"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>17</v>
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3">
+        <v>2</v>
+      </c>
+      <c r="C3" s="3">
+        <v>2</v>
       </c>
       <c r="D3" s="2">
         <v>11</v>
@@ -624,14 +490,14 @@
       <c r="E3" s="2"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>14</v>
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3">
+        <v>3</v>
+      </c>
+      <c r="C4" s="3">
+        <v>3</v>
       </c>
       <c r="D4" s="2">
         <v>8</v>
@@ -639,14 +505,14 @@
       <c r="E4" s="2"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="2" t="s">
+      <c r="A5" s="3">
         <v>4</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>15</v>
+      <c r="B5" s="3">
+        <v>4</v>
+      </c>
+      <c r="C5" s="3">
+        <v>4</v>
       </c>
       <c r="D5" s="2">
         <v>9</v>
@@ -654,14 +520,14 @@
       <c r="E5" s="2"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="2" t="s">
+      <c r="A6" s="3">
         <v>5</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>11</v>
+      <c r="B6" s="3">
+        <v>5</v>
+      </c>
+      <c r="C6" s="3">
+        <v>5</v>
       </c>
       <c r="D6" s="2">
         <v>10</v>
@@ -669,14 +535,14 @@
       <c r="E6" s="2"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>19</v>
+      <c r="A7" s="3">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3">
+        <v>6</v>
+      </c>
+      <c r="C7" s="3">
+        <v>6</v>
       </c>
       <c r="D7" s="2">
         <v>22</v>
@@ -684,14 +550,14 @@
       <c r="E7" s="2"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>21</v>
+      <c r="A8" s="3">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3">
+        <v>7</v>
+      </c>
+      <c r="C8" s="3">
+        <v>7</v>
       </c>
       <c r="D8" s="2">
         <v>24</v>
@@ -699,14 +565,14 @@
       <c r="E8" s="2"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>23</v>
+      <c r="A9" s="3">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3">
+        <v>8</v>
+      </c>
+      <c r="C9" s="3">
+        <v>8</v>
       </c>
       <c r="D9" s="2">
         <v>5</v>
@@ -714,14 +580,14 @@
       <c r="E9" s="2"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>26</v>
+      <c r="A10" s="3">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3">
+        <v>9</v>
+      </c>
+      <c r="C10" s="3">
+        <v>9</v>
       </c>
       <c r="D10" s="2">
         <v>4</v>
@@ -729,14 +595,14 @@
       <c r="E10" s="2"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A11" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>28</v>
+      <c r="A11" s="3">
+        <v>10</v>
+      </c>
+      <c r="B11" s="3">
+        <v>10</v>
+      </c>
+      <c r="C11" s="3">
+        <v>10</v>
       </c>
       <c r="D11" s="2">
         <v>11</v>
@@ -744,14 +610,14 @@
       <c r="E11" s="2"/>
     </row>
     <row r="12" spans="1:5" ht="26.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>31</v>
+      <c r="A12" s="3">
+        <v>11</v>
+      </c>
+      <c r="B12" s="3">
+        <v>11</v>
+      </c>
+      <c r="C12" s="3">
+        <v>11</v>
       </c>
       <c r="D12" s="2">
         <v>10</v>
@@ -759,14 +625,14 @@
       <c r="E12" s="2"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A13" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>32</v>
+      <c r="A13" s="3">
+        <v>12</v>
+      </c>
+      <c r="B13" s="3">
+        <v>12</v>
+      </c>
+      <c r="C13" s="3">
+        <v>12</v>
       </c>
       <c r="D13" s="2">
         <v>7</v>
@@ -774,14 +640,14 @@
       <c r="E13" s="2"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A14" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>34</v>
+      <c r="A14" s="3">
+        <v>13</v>
+      </c>
+      <c r="B14" s="3">
+        <v>13</v>
+      </c>
+      <c r="C14" s="3">
+        <v>13</v>
       </c>
       <c r="D14" s="2">
         <v>8</v>
